--- a/Data_clean/MCAS/Estados_US/Edos_USA_2016/MINNESOTA_2016.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2016/MINNESOTA_2016.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1134"/>
+  <dimension ref="A1:D1128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -439,7 +439,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C6">
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C7">
@@ -680,7 +680,7 @@
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C23">
@@ -732,7 +732,7 @@
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C27">
@@ -1296,7 +1296,7 @@
     <row r="70">
       <c r="B70" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C70">
@@ -1439,7 +1439,7 @@
     <row r="81">
       <c r="B81" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C81">
@@ -1678,7 +1678,7 @@
     <row r="99">
       <c r="B99" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C99">
@@ -1800,7 +1800,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -1857,7 +1857,7 @@
     <row r="112">
       <c r="B112" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C112">
@@ -2044,7 +2044,7 @@
     <row r="126">
       <c r="B126" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C126">
@@ -2382,12 +2382,12 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C152">
@@ -2413,7 +2413,7 @@
     <row r="154">
       <c r="B154" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C154">
@@ -2426,7 +2426,7 @@
     <row r="155">
       <c r="B155" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C155">
@@ -2491,7 +2491,7 @@
     <row r="160">
       <c r="B160" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C160">
@@ -2556,7 +2556,7 @@
     <row r="165">
       <c r="B165" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C165">
@@ -2595,7 +2595,7 @@
     <row r="168">
       <c r="B168" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C168">
@@ -2660,7 +2660,7 @@
     <row r="173">
       <c r="B173" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C173">
@@ -2699,7 +2699,7 @@
     <row r="176">
       <c r="B176" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C176">
@@ -2816,7 +2816,7 @@
     <row r="185">
       <c r="B185" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C185">
@@ -2907,7 +2907,7 @@
     <row r="192">
       <c r="B192" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C192">
@@ -2920,7 +2920,7 @@
     <row r="193">
       <c r="B193" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C193">
@@ -3011,7 +3011,7 @@
     <row r="200">
       <c r="B200" t="inlineStr">
         <is>
-          <t>Tenango del Aire</t>
+          <t>Tenango Del Aire</t>
         </is>
       </c>
       <c r="C200">
@@ -3024,7 +3024,7 @@
     <row r="201">
       <c r="B201" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C201">
@@ -3128,7 +3128,7 @@
     <row r="209">
       <c r="B209" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C209">
@@ -3193,7 +3193,7 @@
     <row r="214">
       <c r="B214" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C214">
@@ -3206,7 +3206,7 @@
     <row r="215">
       <c r="B215" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C215">
@@ -3219,7 +3219,7 @@
     <row r="216">
       <c r="B216" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C216">
@@ -3328,7 +3328,7 @@
     <row r="224">
       <c r="B224" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C224">
@@ -3341,7 +3341,7 @@
     <row r="225">
       <c r="B225" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C225">
@@ -3354,7 +3354,7 @@
     <row r="226">
       <c r="B226" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C226">
@@ -3419,7 +3419,7 @@
     <row r="231">
       <c r="B231" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C231">
@@ -3549,7 +3549,7 @@
     <row r="241">
       <c r="B241" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C241">
@@ -3601,7 +3601,7 @@
     <row r="245">
       <c r="B245" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C245">
@@ -3627,7 +3627,7 @@
     <row r="247">
       <c r="B247" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C247">
@@ -3653,7 +3653,7 @@
     <row r="249">
       <c r="B249" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C249">
@@ -3666,7 +3666,7 @@
     <row r="250">
       <c r="B250" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C250">
@@ -3679,7 +3679,7 @@
     <row r="251">
       <c r="B251" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C251">
@@ -3744,7 +3744,7 @@
     <row r="256">
       <c r="B256" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C256">
@@ -3814,7 +3814,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C261">
@@ -3827,7 +3827,7 @@
     <row r="262">
       <c r="B262" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C262">
@@ -3879,7 +3879,7 @@
     <row r="266">
       <c r="B266" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C266">
@@ -3892,7 +3892,7 @@
     <row r="267">
       <c r="B267" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C267">
@@ -3905,7 +3905,7 @@
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C268">
@@ -3918,7 +3918,7 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C269">
@@ -3957,7 +3957,7 @@
     <row r="272">
       <c r="B272" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C272">
@@ -3970,7 +3970,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C273">
@@ -3983,7 +3983,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C274">
@@ -3996,7 +3996,7 @@
     <row r="275">
       <c r="B275" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C275">
@@ -4048,7 +4048,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C279">
@@ -4061,7 +4061,7 @@
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C280">
@@ -4100,7 +4100,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C283">
@@ -4113,7 +4113,7 @@
     <row r="284">
       <c r="B284" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C284">
@@ -4191,7 +4191,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C290">
@@ -4204,7 +4204,7 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C291">
@@ -4230,7 +4230,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C293">
@@ -4243,7 +4243,7 @@
     <row r="294">
       <c r="B294" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C294">
@@ -4269,7 +4269,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C296">
@@ -4438,7 +4438,7 @@
     <row r="309">
       <c r="B309" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C309">
@@ -4464,7 +4464,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C311">
@@ -4490,7 +4490,7 @@
     <row r="313">
       <c r="B313" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C313">
@@ -4516,7 +4516,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C315">
@@ -4542,7 +4542,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C317">
@@ -4555,7 +4555,7 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C318">
@@ -4716,7 +4716,7 @@
     <row r="330">
       <c r="B330" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C330">
@@ -4768,7 +4768,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C334">
@@ -4820,7 +4820,7 @@
     <row r="338">
       <c r="B338" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C338">
@@ -4846,7 +4846,7 @@
     <row r="340">
       <c r="B340" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C340">
@@ -4937,7 +4937,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C347">
@@ -4950,7 +4950,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C348">
@@ -4963,7 +4963,7 @@
     <row r="349">
       <c r="B349" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C349">
@@ -4976,7 +4976,7 @@
     <row r="350">
       <c r="B350" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C350">
@@ -5002,7 +5002,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C352">
@@ -5080,7 +5080,7 @@
     <row r="358">
       <c r="B358" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C358">
@@ -5093,7 +5093,7 @@
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C359">
@@ -5119,7 +5119,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C361">
@@ -5158,7 +5158,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C364">
@@ -5171,7 +5171,7 @@
     <row r="365">
       <c r="B365" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C365">
@@ -5197,7 +5197,7 @@
     <row r="367">
       <c r="B367" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C367">
@@ -5306,7 +5306,7 @@
     <row r="375">
       <c r="B375" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C375">
@@ -5319,7 +5319,7 @@
     <row r="376">
       <c r="B376" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C376">
@@ -5436,7 +5436,7 @@
     <row r="385">
       <c r="B385" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C385">
@@ -5501,7 +5501,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C390">
@@ -5579,7 +5579,7 @@
     <row r="396">
       <c r="B396" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C396">
@@ -5592,7 +5592,7 @@
     <row r="397">
       <c r="B397" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C397">
@@ -5618,7 +5618,7 @@
     <row r="399">
       <c r="B399" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C399">
@@ -5657,7 +5657,7 @@
     <row r="402">
       <c r="B402" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C402">
@@ -5761,7 +5761,7 @@
     <row r="410">
       <c r="B410" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C410">
@@ -5787,7 +5787,7 @@
     <row r="412">
       <c r="B412" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C412">
@@ -5813,7 +5813,7 @@
     <row r="414">
       <c r="B414" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C414">
@@ -5839,7 +5839,7 @@
     <row r="416">
       <c r="B416" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C416">
@@ -5852,7 +5852,7 @@
     <row r="417">
       <c r="B417" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C417">
@@ -5878,7 +5878,7 @@
     <row r="419">
       <c r="B419" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C419">
@@ -5891,7 +5891,7 @@
     <row r="420">
       <c r="B420" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C420">
@@ -5930,7 +5930,7 @@
     <row r="423">
       <c r="B423" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C423">
@@ -5943,7 +5943,7 @@
     <row r="424">
       <c r="B424" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C424">
@@ -5969,7 +5969,7 @@
     <row r="426">
       <c r="B426" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C426">
@@ -5982,7 +5982,7 @@
     <row r="427">
       <c r="B427" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C427">
@@ -6047,7 +6047,7 @@
     <row r="432">
       <c r="B432" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C432">
@@ -6086,7 +6086,7 @@
     <row r="435">
       <c r="B435" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C435">
@@ -6099,7 +6099,7 @@
     <row r="436">
       <c r="B436" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C436">
@@ -6312,7 +6312,7 @@
     <row r="452">
       <c r="B452" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C452">
@@ -6741,7 +6741,7 @@
     <row r="485">
       <c r="B485" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C485">
@@ -6980,7 +6980,7 @@
     <row r="503">
       <c r="B503" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C503">
@@ -7071,7 +7071,7 @@
     <row r="510">
       <c r="B510" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C510">
@@ -7162,7 +7162,7 @@
     <row r="517">
       <c r="B517" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C517">
@@ -7175,7 +7175,7 @@
     <row r="518">
       <c r="B518" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C518">
@@ -7279,7 +7279,7 @@
     <row r="526">
       <c r="B526" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C526">
@@ -7414,7 +7414,7 @@
     <row r="536">
       <c r="B536" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C536">
@@ -7601,7 +7601,7 @@
     <row r="550">
       <c r="B550" t="inlineStr">
         <is>
-          <t>Lampazos de Naranjo</t>
+          <t>Lampazos De Naranjo</t>
         </is>
       </c>
       <c r="C550">
@@ -7666,7 +7666,7 @@
     <row r="555">
       <c r="B555" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C555">
@@ -7710,7 +7710,7 @@
     <row r="558">
       <c r="B558" t="inlineStr">
         <is>
-          <t>Ayoquezco de Aldama</t>
+          <t>Ayoquezco De Aldama</t>
         </is>
       </c>
       <c r="C558">
@@ -7749,7 +7749,7 @@
     <row r="561">
       <c r="B561" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C561">
@@ -7762,7 +7762,7 @@
     <row r="562">
       <c r="B562" t="inlineStr">
         <is>
-          <t>Ciénega de Zimatlán</t>
+          <t>Ciénega De Zimatlán</t>
         </is>
       </c>
       <c r="C562">
@@ -7788,7 +7788,7 @@
     <row r="564">
       <c r="B564" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C564">
@@ -7801,7 +7801,7 @@
     <row r="565">
       <c r="B565" t="inlineStr">
         <is>
-          <t>El Barrio de la Soledad</t>
+          <t>El Barrio De La Soledad</t>
         </is>
       </c>
       <c r="C565">
@@ -7814,7 +7814,7 @@
     <row r="566">
       <c r="B566" t="inlineStr">
         <is>
-          <t>Guadalupe de Ramírez</t>
+          <t>Guadalupe De Ramírez</t>
         </is>
       </c>
       <c r="C566">
@@ -7827,7 +7827,7 @@
     <row r="567">
       <c r="B567" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C567">
@@ -7853,7 +7853,7 @@
     <row r="569">
       <c r="B569" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C569">
@@ -7866,7 +7866,7 @@
     <row r="570">
       <c r="B570" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C570">
@@ -7970,7 +7970,7 @@
     <row r="578">
       <c r="B578" t="inlineStr">
         <is>
-          <t>Mazatlán Villa de Flores</t>
+          <t>Mazatlán Villa De Flores</t>
         </is>
       </c>
       <c r="C578">
@@ -7983,7 +7983,7 @@
     <row r="579">
       <c r="B579" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C579">
@@ -7996,7 +7996,7 @@
     <row r="580">
       <c r="B580" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C580">
@@ -8009,7 +8009,7 @@
     <row r="581">
       <c r="B581" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C581">
@@ -8022,7 +8022,7 @@
     <row r="582">
       <c r="B582" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C582">
@@ -8165,7 +8165,7 @@
     <row r="593">
       <c r="B593" t="inlineStr">
         <is>
-          <t>San Dionisio del Mar</t>
+          <t>San Dionisio Del Mar</t>
         </is>
       </c>
       <c r="C593">
@@ -8347,7 +8347,7 @@
     <row r="607">
       <c r="B607" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C607">
@@ -8399,7 +8399,7 @@
     <row r="611">
       <c r="B611" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C611">
@@ -8581,7 +8581,7 @@
     <row r="625">
       <c r="B625" t="inlineStr">
         <is>
-          <t>San Mateo del Mar</t>
+          <t>San Mateo Del Mar</t>
         </is>
       </c>
       <c r="C625">
@@ -8750,7 +8750,7 @@
     <row r="638">
       <c r="B638" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C638">
@@ -8906,7 +8906,7 @@
     <row r="650">
       <c r="B650" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Ayutla</t>
+          <t>San Pedro Y San Pablo Ayutla</t>
         </is>
       </c>
       <c r="C650">
@@ -9075,7 +9075,7 @@
     <row r="663">
       <c r="B663" t="inlineStr">
         <is>
-          <t>Santa Cruz de Bravo</t>
+          <t>Santa Cruz De Bravo</t>
         </is>
       </c>
       <c r="C663">
@@ -9231,7 +9231,7 @@
     <row r="675">
       <c r="B675" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C675">
@@ -9400,7 +9400,7 @@
     <row r="688">
       <c r="B688" t="inlineStr">
         <is>
-          <t>Santiago del Río</t>
+          <t>Santiago Del Río</t>
         </is>
       </c>
       <c r="C688">
@@ -9673,7 +9673,7 @@
     <row r="709">
       <c r="B709" t="inlineStr">
         <is>
-          <t>Tanetze de Zaragoza</t>
+          <t>Tanetze De Zaragoza</t>
         </is>
       </c>
       <c r="C709">
@@ -9699,7 +9699,7 @@
     <row r="711">
       <c r="B711" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C711">
@@ -9712,7 +9712,7 @@
     <row r="712">
       <c r="B712" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C712">
@@ -9725,7 +9725,7 @@
     <row r="713">
       <c r="B713" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C713">
@@ -9738,7 +9738,7 @@
     <row r="714">
       <c r="B714" t="inlineStr">
         <is>
-          <t>Tlalixtac de Cabrera</t>
+          <t>Tlalixtac De Cabrera</t>
         </is>
       </c>
       <c r="C714">
@@ -9777,7 +9777,7 @@
     <row r="717">
       <c r="B717" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C717">
@@ -9790,7 +9790,7 @@
     <row r="718">
       <c r="B718" t="inlineStr">
         <is>
-          <t>Villa de Tamazulápam del Progreso</t>
+          <t>Villa De Tamazulápam Del Progreso</t>
         </is>
       </c>
       <c r="C718">
@@ -9803,7 +9803,7 @@
     <row r="719">
       <c r="B719" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C719">
@@ -9816,7 +9816,7 @@
     <row r="720">
       <c r="B720" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C720">
@@ -9829,7 +9829,7 @@
     <row r="721">
       <c r="B721" t="inlineStr">
         <is>
-          <t>Zapotitlán del Río</t>
+          <t>Zapotitlán Del Río</t>
         </is>
       </c>
       <c r="C721">
@@ -9855,7 +9855,7 @@
     <row r="723">
       <c r="B723" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C723">
@@ -10081,7 +10081,7 @@
     <row r="740">
       <c r="B740" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C740">
@@ -10107,7 +10107,7 @@
     <row r="742">
       <c r="B742" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C742">
@@ -10198,7 +10198,7 @@
     <row r="749">
       <c r="B749" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C749">
@@ -10250,7 +10250,7 @@
     <row r="753">
       <c r="B753" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C753">
@@ -10380,7 +10380,7 @@
     <row r="763">
       <c r="B763" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C763">
@@ -10393,7 +10393,7 @@
     <row r="764">
       <c r="B764" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C764">
@@ -10445,7 +10445,7 @@
     <row r="768">
       <c r="B768" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C768">
@@ -10614,7 +10614,7 @@
     <row r="781">
       <c r="B781" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C781">
@@ -10744,7 +10744,7 @@
     <row r="791">
       <c r="B791" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C791">
@@ -10783,7 +10783,7 @@
     <row r="794">
       <c r="B794" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C794">
@@ -10796,7 +10796,7 @@
     <row r="795">
       <c r="B795" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C795">
@@ -10822,7 +10822,7 @@
     <row r="797">
       <c r="B797" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C797">
@@ -10913,7 +10913,7 @@
     <row r="804">
       <c r="B804" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C804">
@@ -10926,7 +10926,7 @@
     <row r="805">
       <c r="B805" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C805">
@@ -10978,7 +10978,7 @@
     <row r="809">
       <c r="B809" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C809">
@@ -11004,7 +11004,7 @@
     <row r="811">
       <c r="B811" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C811">
@@ -11069,7 +11069,7 @@
     <row r="816">
       <c r="B816" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C816">
@@ -11399,7 +11399,7 @@
       </c>
       <c r="B841" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C841">
@@ -11412,7 +11412,7 @@
     <row r="842">
       <c r="B842" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C842">
@@ -11464,7 +11464,7 @@
     <row r="846">
       <c r="B846" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C846">
@@ -11477,7 +11477,7 @@
     <row r="847">
       <c r="B847" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C847">
@@ -11503,7 +11503,7 @@
     <row r="849">
       <c r="B849" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C849">
@@ -11529,7 +11529,7 @@
     <row r="851">
       <c r="B851" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C851">
@@ -11656,7 +11656,7 @@
     <row r="860">
       <c r="B860" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C860">
@@ -11721,7 +11721,7 @@
     <row r="865">
       <c r="B865" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C865">
@@ -11864,7 +11864,7 @@
     <row r="876">
       <c r="B876" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C876">
@@ -11890,7 +11890,7 @@
     <row r="878">
       <c r="B878" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C878">
@@ -11916,7 +11916,7 @@
     <row r="880">
       <c r="B880" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C880">
@@ -11942,7 +11942,7 @@
     <row r="882">
       <c r="B882" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C882">
@@ -11955,7 +11955,7 @@
     <row r="883">
       <c r="B883" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C883">
@@ -11968,7 +11968,7 @@
     <row r="884">
       <c r="B884" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C884">
@@ -11981,7 +11981,7 @@
     <row r="885">
       <c r="B885" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C885">
@@ -12227,7 +12227,7 @@
         <v>63</v>
       </c>
       <c r="D903">
-        <v>0.009433962264150943</v>
+        <v>0.009433962264150945</v>
       </c>
     </row>
     <row r="904">
@@ -12490,7 +12490,7 @@
     <row r="923">
       <c r="B923" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C923">
@@ -12781,7 +12781,7 @@
     <row r="945">
       <c r="B945" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C945">
@@ -12877,7 +12877,7 @@
       </c>
       <c r="B952" t="inlineStr">
         <is>
-          <t>Acuamanala de Miguel Hidalgo</t>
+          <t>Acuamanala De Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C952">
@@ -12955,7 +12955,7 @@
     <row r="958">
       <c r="B958" t="inlineStr">
         <is>
-          <t>Mazatecochco de José María Morelos</t>
+          <t>Mazatecochco De José María Morelos</t>
         </is>
       </c>
       <c r="C958">
@@ -12981,7 +12981,7 @@
     <row r="960">
       <c r="B960" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C960">
@@ -13194,7 +13194,7 @@
     <row r="976">
       <c r="B976" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C976">
@@ -13246,7 +13246,7 @@
     <row r="980">
       <c r="B980" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C980">
@@ -13376,7 +13376,7 @@
     <row r="990">
       <c r="B990" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C990">
@@ -13428,7 +13428,7 @@
     <row r="994">
       <c r="B994" t="inlineStr">
         <is>
-          <t>Chinampa de Gorostiza</t>
+          <t>Chinampa De Gorostiza</t>
         </is>
       </c>
       <c r="C994">
@@ -13506,7 +13506,7 @@
     <row r="1000">
       <c r="B1000" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1000">
@@ -13649,7 +13649,7 @@
     <row r="1011">
       <c r="B1011" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1011">
@@ -13662,7 +13662,7 @@
     <row r="1012">
       <c r="B1012" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1012">
@@ -13688,7 +13688,7 @@
     <row r="1014">
       <c r="B1014" t="inlineStr">
         <is>
-          <t>Ixhuacán de los Reyes</t>
+          <t>Ixhuacán De Los Reyes</t>
         </is>
       </c>
       <c r="C1014">
@@ -13701,7 +13701,7 @@
     <row r="1015">
       <c r="B1015" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1015">
@@ -13714,7 +13714,7 @@
     <row r="1016">
       <c r="B1016" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1016">
@@ -13818,7 +13818,7 @@
     <row r="1024">
       <c r="B1024" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1024">
@@ -13896,7 +13896,7 @@
     <row r="1030">
       <c r="B1030" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1030">
@@ -13909,7 +13909,7 @@
     <row r="1031">
       <c r="B1031" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1031">
@@ -14039,7 +14039,7 @@
     <row r="1041">
       <c r="B1041" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C1041">
@@ -14078,7 +14078,7 @@
     <row r="1044">
       <c r="B1044" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1044">
@@ -14091,7 +14091,7 @@
     <row r="1045">
       <c r="B1045" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1045">
@@ -14143,7 +14143,7 @@
     <row r="1049">
       <c r="B1049" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1049">
@@ -14234,7 +14234,7 @@
     <row r="1056">
       <c r="B1056" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1056">
@@ -14273,7 +14273,7 @@
     <row r="1059">
       <c r="B1059" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1059">
@@ -14520,7 +14520,7 @@
     <row r="1078">
       <c r="B1078" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1078">
@@ -14611,7 +14611,7 @@
     <row r="1085">
       <c r="B1085" t="inlineStr">
         <is>
-          <t>Zozocolco de Hidalgo</t>
+          <t>Zozocolco De Hidalgo</t>
         </is>
       </c>
       <c r="C1085">
@@ -14777,7 +14777,7 @@
     <row r="1097">
       <c r="B1097" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C1097">
@@ -14959,7 +14959,7 @@
     <row r="1111">
       <c r="B1111" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C1111">
@@ -14972,7 +14972,7 @@
     <row r="1112">
       <c r="B1112" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1112">
@@ -15089,7 +15089,7 @@
     <row r="1121">
       <c r="B1121" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1121">
@@ -15188,41 +15188,6 @@
       </c>
       <c r="D1128">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1130">
-      <c r="A1130" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 814,748</t>
-        </is>
-      </c>
-    </row>
-    <row r="1131">
-      <c r="A1131" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1132">
-      <c r="A1132" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1133">
-      <c r="A1133" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1134">
-      <c r="A1134" t="inlineStr">
-        <is>
-          <t>Marzo de 2017</t>
-        </is>
       </c>
     </row>
   </sheetData>
